--- a/va_facility_data_2025-02-20/Astoria VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Astoria%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Astoria VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Astoria%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Refd05a2e9675426ca67e1ddfabbe010b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9e6163521e9a46b99b5a31bb0b1c038c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R875a90df28534648a387f55202145456"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8ab5814370f14224b90739fa4213466f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re316bf76425342a6a7e59b81fa21f69f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re02b7c8eaa7b48508151c30dadd82287"/>
   </x:sheets>
 </x:workbook>
 </file>
